--- a/ASD2/Labo4/statistiques.xlsx
+++ b/ASD2/Labo4/statistiques.xlsx
@@ -27,9 +27,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
-    <t>10000 (100%)</t>
+    <t>------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Test for 13DirectoryLong</t>
+  </si>
+  <si>
+    <t>Test for 12DirectoryPolILj2EE</t>
+  </si>
+  <si>
+    <t>Test for 12DirectoryPolILj31EE</t>
+  </si>
+  <si>
+    <t>Test for 12DirectoryPolILj37EE</t>
+  </si>
+  <si>
+    <t>Test for 12DirectoryStl</t>
+  </si>
+  <si>
+    <t>Test for 15DirectorySha256</t>
+  </si>
+  <si>
+    <t>Test for 13DirectoryCity</t>
+  </si>
+  <si>
+    <t>Test for 19DirectoryWithoutAVS</t>
   </si>
   <si>
     <t>12DirectoryPolILj2EE</t>
@@ -71,13 +95,7 @@
     <t>Insertion total</t>
   </si>
   <si>
-    <t xml:space="preserve">                  </t>
-  </si>
-  <si>
     <t>Insertion duration total   time (microseconds)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>Insertion duration average time (microseconds)</t>
@@ -89,25 +107,13 @@
     <t>Number of buckets</t>
   </si>
   <si>
-    <t xml:space="preserve">                </t>
-  </si>
-  <si>
     <t>Number of collisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             </t>
   </si>
   <si>
     <t>Number of empty buckets</t>
   </si>
   <si>
-    <t xml:space="preserve">          </t>
-  </si>
-  <si>
     <t>Largest bucket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   </t>
   </si>
   <si>
     <t>Smallest bucket</t>
@@ -119,79 +125,82 @@
     <t>Search total</t>
   </si>
   <si>
-    <t xml:space="preserve">                     </t>
-  </si>
-  <si>
     <t>Found total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      </t>
   </si>
   <si>
     <t>Search duration total   time (microseconds)</t>
   </si>
   <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
     <t>Search duration average time (microseconds)</t>
   </si>
   <si>
-    <t xml:space="preserve">             773 (7.73%)</t>
+    <t>Insertion duration total   time</t>
   </si>
   <si>
-    <t xml:space="preserve">          53006 (85.1735%)</t>
+    <t>Insertion duration average time</t>
   </si>
   <si>
-    <t xml:space="preserve">                      10000 (100%)</t>
+    <t>Search duration total   time</t>
   </si>
   <si>
-    <t xml:space="preserve">             739 (7.39%)</t>
+    <t>Search duration average time</t>
   </si>
   <si>
-    <t xml:space="preserve">          52972 (85.1188%)</t>
+    <t xml:space="preserve">             262726.27%)</t>
   </si>
   <si>
-    <t xml:space="preserve">             1848 (18.48%)</t>
+    <t xml:space="preserve">             264526.45%)</t>
   </si>
   <si>
-    <t xml:space="preserve">          54081 (86.9008%)</t>
+    <t xml:space="preserve">             263226.32%)</t>
   </si>
   <si>
-    <t xml:space="preserve">             797 (7.97%)</t>
+    <t xml:space="preserve">             268226.82%)</t>
   </si>
   <si>
-    <t xml:space="preserve">          53030 (85.212%)</t>
+    <t xml:space="preserve">             269726.97%)</t>
   </si>
   <si>
-    <t xml:space="preserve">             765 (7.65%)</t>
+    <t xml:space="preserve">             269326.93%)</t>
   </si>
   <si>
-    <t xml:space="preserve">          52998 (85.1606%)</t>
+    <t xml:space="preserve">             271927.19%)</t>
   </si>
   <si>
-    <t xml:space="preserve">             753 (7.53%)</t>
+    <t xml:space="preserve">             262126.21%)</t>
   </si>
   <si>
-    <t xml:space="preserve">          52986 (85.1413%)</t>
+    <t xml:space="preserve">             630563.05%)</t>
   </si>
   <si>
-    <t xml:space="preserve">             774 (7.74%)</t>
+    <t xml:space="preserve">          780051.4071%)</t>
   </si>
   <si>
-    <t xml:space="preserve">          53007 (85.1751%)</t>
+    <t xml:space="preserve">          781851.5257%)</t>
   </si>
   <si>
-    <t xml:space="preserve">             770 (7.7%)</t>
+    <t xml:space="preserve">          780551.4401%)</t>
   </si>
   <si>
-    <t xml:space="preserve">          53003 (85.1686%)</t>
+    <t xml:space="preserve">          785551.7696%)</t>
   </si>
   <si>
-    <t xml:space="preserve">             766 (7.66%)</t>
+    <t xml:space="preserve">          787051.8685%)</t>
   </si>
   <si>
-    <t xml:space="preserve">          52999 (85.1622%)</t>
+    <t xml:space="preserve">          786651.8421%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          789252.0134%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          779451.3676%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1147875.6475%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      10000100%)</t>
   </si>
 </sst>
 </file>
@@ -235,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -247,6 +256,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,6 +509,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Fonction de hachage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -563,6 +629,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Pourcentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -761,7 +883,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Temps moyen d'insertion (μs)</c:v>
+            <c:v>Temps moyen d'insertion</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -814,7 +936,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Temps moyen de recherche (μs)</c:v>
+            <c:v>Temps moyen de recherche</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -883,6 +1005,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Fonction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> de hachage</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -947,6 +1130,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Temps [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -979,6 +1228,1019 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="439482040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Performances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> collisions - remplissage des buckets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pourcentage de collisions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$28:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pourcentage de buckets vides</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$30:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>85.173500000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.118799999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.900800000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.212000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.160600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.141300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.1751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.168599999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.498599999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="443335880"/>
+        <c:axId val="443341760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443335880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>fonction de hachage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443341760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443341760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Pourcentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443335880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Performances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> insertion - recherche</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Temps moyen d'insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$24:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.9020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2014999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4031000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6012999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6013999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Temps moyen de recherche</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$37:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7021999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0006999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60040000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9022999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="429538064"/>
+        <c:axId val="429539632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="429538064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Fonction de hachage</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429539632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429539632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temps [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429538064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1139,6 +2401,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2145,20 +3487,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419379</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161645</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71997</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>134190</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47345</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78161</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2179,16 +4527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>156602</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>27174</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78161</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>345421</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>103374</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>87686</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2202,6 +4550,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>67237</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>73401</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Graphique 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>87966</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Graphique 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2473,15 +4885,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K195"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="58.140625" customWidth="1"/>
+    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
@@ -2496,31 +4909,31 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2556,17 +4969,15 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>10000</v>
       </c>
@@ -2597,11 +5008,9 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>28021</v>
       </c>
@@ -2632,11 +5041,9 @@
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2">
         <v>2.8020999999999998</v>
       </c>
@@ -2667,17 +5074,15 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>26267</v>
       </c>
@@ -2708,11 +5113,9 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>1677</v>
       </c>
@@ -2743,7 +5146,7 @@
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="4">
@@ -2776,11 +5179,9 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>17944</v>
       </c>
@@ -2811,7 +5212,7 @@
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
@@ -2844,11 +5245,9 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -2879,11 +5278,9 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>0</v>
       </c>
@@ -2914,17 +5311,15 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>10000</v>
       </c>
@@ -2955,46 +5350,42 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>0</v>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>14010</v>
       </c>
@@ -3025,11 +5416,9 @@
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2">
         <v>1.401</v>
       </c>
@@ -3064,908 +5453,1688 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>10000</v>
       </c>
+      <c r="D22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>10000</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>29020</v>
       </c>
+      <c r="D23" s="1">
+        <v>30020</v>
+      </c>
+      <c r="E23" s="1">
+        <v>22015</v>
+      </c>
+      <c r="F23" s="1">
+        <v>18008</v>
+      </c>
+      <c r="G23" s="1">
+        <v>20015</v>
+      </c>
+      <c r="H23" s="1">
+        <v>17005</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44031</v>
+      </c>
+      <c r="J23" s="1">
+        <v>16013</v>
+      </c>
+      <c r="K23" s="1">
+        <v>16014</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="1">
         <v>2.9020000000000001</v>
       </c>
+      <c r="D24" s="1">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.2014999999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.8008</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.0015000000000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.7004999999999999</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4.4031000000000002</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.6012999999999999</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.6013999999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
         <v>62233</v>
       </c>
+      <c r="D26" s="1">
+        <v>62233</v>
+      </c>
+      <c r="E26" s="1">
+        <v>62233</v>
+      </c>
+      <c r="F26" s="1">
+        <v>62233</v>
+      </c>
+      <c r="G26" s="1">
+        <v>62233</v>
+      </c>
+      <c r="H26" s="1">
+        <v>62233</v>
+      </c>
+      <c r="I26" s="1">
+        <v>62233</v>
+      </c>
+      <c r="J26" s="1">
+        <v>62233</v>
+      </c>
+      <c r="K26" s="1">
+        <v>62233</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
+      <c r="C27" s="1">
+        <v>773</v>
+      </c>
+      <c r="D27" s="1">
+        <v>739</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1848</v>
+      </c>
+      <c r="F27" s="1">
+        <v>797</v>
+      </c>
+      <c r="G27" s="1">
+        <v>765</v>
+      </c>
+      <c r="H27" s="1">
+        <v>753</v>
+      </c>
+      <c r="I27" s="1">
+        <v>774</v>
+      </c>
+      <c r="J27" s="1">
+        <v>770</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5954</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28">
+        <v>7.73</v>
+      </c>
+      <c r="D28">
+        <v>7.39</v>
+      </c>
+      <c r="E28">
+        <v>18.48</v>
+      </c>
+      <c r="F28">
+        <v>7.97</v>
+      </c>
+      <c r="G28">
+        <v>7.65</v>
+      </c>
+      <c r="H28">
+        <v>7.53</v>
+      </c>
+      <c r="I28">
+        <v>7.74</v>
+      </c>
+      <c r="J28">
+        <v>7.7</v>
+      </c>
+      <c r="K28" s="5">
+        <v>59.54</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
+      <c r="C29" s="1">
+        <v>53006</v>
+      </c>
+      <c r="D29" s="1">
+        <v>52972</v>
+      </c>
+      <c r="E29" s="1">
+        <v>54081</v>
+      </c>
+      <c r="F29" s="1">
+        <v>53030</v>
+      </c>
+      <c r="G29" s="1">
+        <v>52998</v>
+      </c>
+      <c r="H29" s="1">
+        <v>52986</v>
+      </c>
+      <c r="I29" s="1">
+        <v>53007</v>
+      </c>
+      <c r="J29" s="1">
+        <v>53003</v>
+      </c>
+      <c r="K29" s="1">
+        <v>58187</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30">
+        <v>85.173500000000004</v>
+      </c>
+      <c r="D30">
+        <v>85.118799999999993</v>
+      </c>
+      <c r="E30">
+        <v>86.900800000000004</v>
+      </c>
+      <c r="F30">
+        <v>85.212000000000003</v>
+      </c>
+      <c r="G30">
+        <v>85.160600000000002</v>
+      </c>
+      <c r="H30">
+        <v>85.141300000000001</v>
+      </c>
+      <c r="I30">
+        <v>85.1751</v>
+      </c>
+      <c r="J30">
+        <v>85.168599999999998</v>
+      </c>
+      <c r="K30">
+        <v>93.498599999999996</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1">
         <v>4</v>
       </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J34">
+        <v>10000</v>
+      </c>
+      <c r="K34" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J35">
+        <v>10000</v>
+      </c>
+      <c r="K35" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1">
         <v>16007</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <v>27022</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8005</v>
+      </c>
+      <c r="F36" s="1">
+        <v>10007</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6004</v>
+      </c>
+      <c r="H36" s="1">
+        <v>7004</v>
+      </c>
+      <c r="I36" s="1">
+        <v>39023</v>
+      </c>
+      <c r="J36">
+        <v>15002</v>
+      </c>
+      <c r="K36" s="1">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="1">
         <v>1.6007</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="1">
+        <v>2.7021999999999999</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.0006999999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="I37" s="1">
+        <v>3.9022999999999999</v>
+      </c>
+      <c r="J37">
+        <v>1.5002</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1.0002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1">
-        <v>30020</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1">
-        <v>3.0019999999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1">
-        <v>62233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J40">
+        <v>10000</v>
+      </c>
+      <c r="K40">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1">
+        <v>29015</v>
+      </c>
+      <c r="D41" s="1">
+        <v>13007</v>
+      </c>
+      <c r="E41" s="1">
+        <v>20021</v>
+      </c>
+      <c r="F41" s="1">
+        <v>11009</v>
+      </c>
+      <c r="G41" s="1">
+        <v>23032</v>
+      </c>
+      <c r="H41" s="1">
+        <v>20001</v>
+      </c>
+      <c r="I41" s="1">
+        <v>46027</v>
+      </c>
+      <c r="J41">
+        <v>13013</v>
+      </c>
+      <c r="K41">
+        <v>21015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>2.9015</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.3007</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2.0021</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.1009</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2.3031999999999999</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2.0001000000000002</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4.6026999999999996</v>
+      </c>
+      <c r="J42">
+        <v>1.3012999999999999</v>
+      </c>
+      <c r="K42">
+        <v>2.1015000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>15173</v>
+      </c>
+      <c r="D44" s="1">
+        <v>15173</v>
+      </c>
+      <c r="E44" s="1">
+        <v>15173</v>
+      </c>
+      <c r="F44" s="1">
+        <v>15173</v>
+      </c>
+      <c r="G44" s="1">
+        <v>15173</v>
+      </c>
+      <c r="H44" s="1">
+        <v>15173</v>
+      </c>
+      <c r="I44" s="1">
+        <v>15173</v>
+      </c>
+      <c r="J44">
+        <v>15173</v>
+      </c>
+      <c r="K44">
+        <v>15173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>6</v>
+      </c>
+      <c r="G47" s="1">
+        <v>6</v>
+      </c>
+      <c r="H47" s="1">
+        <v>6</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50">
+        <v>10000</v>
+      </c>
+      <c r="D50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J50">
+        <v>10000</v>
+      </c>
+      <c r="K50">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>19013</v>
+      </c>
+      <c r="D52" s="1">
+        <v>19018</v>
+      </c>
+      <c r="E52" s="1">
+        <v>15020</v>
+      </c>
+      <c r="F52" s="1">
+        <v>11003</v>
+      </c>
+      <c r="G52" s="1">
+        <v>10007</v>
+      </c>
+      <c r="H52" s="1">
+        <v>9008</v>
+      </c>
+      <c r="I52" s="1">
+        <v>47029</v>
+      </c>
+      <c r="J52">
+        <v>8005</v>
+      </c>
+      <c r="K52">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>1.9013</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.9017999999999999</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1.502</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1.1003000000000001</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1.0006999999999999</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="I53" s="1">
+        <v>4.7028999999999996</v>
+      </c>
+      <c r="J53">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="K53">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1">
-        <v>27022</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1">
-        <v>2.7021999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1">
-        <v>22015</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1">
-        <v>2.2014999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1">
-        <v>62233</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1">
-        <v>5</v>
-      </c>
+      <c r="A75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1">
+      <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1">
-        <v>10000</v>
+      <c r="A78" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1">
-        <v>8005</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1">
-        <v>0.80049999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1">
-        <v>18008</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1">
-        <v>1.8008</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1">
-        <v>62233</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B92" s="1"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1">
-        <v>4</v>
-      </c>
+      <c r="A94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1">
+      <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1">
-        <v>10000</v>
+      <c r="A97" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
+      <c r="A98" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1">
-        <v>10007</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1">
-        <v>1.0006999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1">
-        <v>20015</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1">
-        <v>2.0015000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1">
-        <v>62233</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1">
+      <c r="A113" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1">
+      <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B114" s="1"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1">
-        <v>10000</v>
+      <c r="A116" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1" t="s">
+      <c r="A117" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1">
-        <v>6004</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1">
-        <v>0.60040000000000004</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1">
-        <v>17005</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1">
-        <v>1.7004999999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1">
-        <v>62233</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1">
-        <v>4</v>
-      </c>
+      <c r="A132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="1"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1">
+      <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1">
-        <v>10000</v>
+      <c r="A135" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1" t="s">
+      <c r="A136" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1">
-        <v>7004</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1">
-        <v>0.70040000000000002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1">
-        <v>44031</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1">
-        <v>4.4031000000000002</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1">
-        <v>62233</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1">
-        <v>4</v>
-      </c>
+      <c r="A151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1">
+      <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1">
-        <v>10000</v>
+      <c r="A154" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1" t="s">
+      <c r="A155" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1">
-        <v>39023</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1">
-        <v>3.9022999999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1">
-        <v>16013</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1">
-        <v>1.6012999999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1">
-        <v>62233</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1">
-        <v>4</v>
-      </c>
+      <c r="A170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1">
+      <c r="A171" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B173">
-        <v>10000</v>
+      <c r="A173" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+      <c r="A174" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B175">
-        <v>15002</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B176">
-        <v>1.5002</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183">
-        <v>27018</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184">
-        <v>2.7018</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186">
-        <v>62233</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194">
-        <v>14008</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195">
-        <v>1.4008</v>
       </c>
     </row>
   </sheetData>

--- a/ASD2/Labo4/statistiques.xlsx
+++ b/ASD2/Labo4/statistiques.xlsx
@@ -27,34 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
-  <si>
-    <t>------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>Test for 13DirectoryLong</t>
-  </si>
-  <si>
-    <t>Test for 12DirectoryPolILj2EE</t>
-  </si>
-  <si>
-    <t>Test for 12DirectoryPolILj31EE</t>
-  </si>
-  <si>
-    <t>Test for 12DirectoryPolILj37EE</t>
-  </si>
-  <si>
-    <t>Test for 12DirectoryStl</t>
-  </si>
-  <si>
-    <t>Test for 15DirectorySha256</t>
-  </si>
-  <si>
-    <t>Test for 13DirectoryCity</t>
-  </si>
-  <si>
-    <t>Test for 19DirectoryWithoutAVS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>12DirectoryPolILj2EE</t>
   </si>
@@ -95,12 +68,6 @@
     <t>Insertion total</t>
   </si>
   <si>
-    <t>Insertion duration total   time (microseconds)</t>
-  </si>
-  <si>
-    <t>Insertion duration average time (microseconds)</t>
-  </si>
-  <si>
     <t>Distribution</t>
   </si>
   <si>
@@ -128,86 +95,48 @@
     <t>Found total</t>
   </si>
   <si>
-    <t>Search duration total   time (microseconds)</t>
+    <t>MAX_LOAD_FACTOR = 4</t>
   </si>
   <si>
-    <t>Search duration average time (microseconds)</t>
+    <t>Insertion duration total   time [μs]</t>
   </si>
   <si>
-    <t>Insertion duration total   time</t>
+    <t>Insertion duration average time [μs]</t>
   </si>
   <si>
-    <t>Insertion duration average time</t>
+    <t>Search duration total   time [μs]</t>
   </si>
   <si>
-    <t>Search duration total   time</t>
+    <t>Search duration average time [μs]</t>
   </si>
   <si>
-    <t>Search duration average time</t>
+    <r>
+      <t>19DirectoryWithoutAVS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (a nous)</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">             262726.27%)</t>
+    <t>MAX_LOAD_FACTOR = 6</t>
   </si>
   <si>
-    <t xml:space="preserve">             264526.45%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             263226.32%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             268226.82%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             269726.97%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             269326.93%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             271927.19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             262126.21%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             630563.05%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          780051.4071%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          781851.5257%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          780551.4401%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          785551.7696%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          787051.8685%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          786651.8421%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          789252.0134%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          779451.3676%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          1147875.6475%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      10000100%)</t>
+    <t>MAX_LOAD_FACTOR = 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +148,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,17 +183,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,7 +278,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-CH" baseline="0"/>
-              <a:t> collisions - remplissage des buckets</a:t>
+              <a:t> collisions - remplissage des lignes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -401,36 +338,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$10:$K$10</c:f>
+              <c:f>Feuil1!$B$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.77</c:v>
+                  <c:v>65.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.48</c:v>
+                  <c:v>65.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.59</c:v>
+                  <c:v>65.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.34</c:v>
+                  <c:v>65.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.649999999999999</c:v>
+                  <c:v>65.14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.14</c:v>
+                  <c:v>65.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.02</c:v>
+                  <c:v>65.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.39</c:v>
+                  <c:v>65.209999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.41</c:v>
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,7 +380,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Pourcentage de buckets vides</c:v>
+            <c:v>Pourcentage d'indices vides</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -454,36 +394,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$12:$K$12</c:f>
+              <c:f>Feuil1!$B$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>68.313900000000004</c:v>
+                  <c:v>7.3281599999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.203400000000002</c:v>
+                  <c:v>6.8734999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.006699999999995</c:v>
+                  <c:v>6.7665199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.530900000000003</c:v>
+                  <c:v>7.2746700000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.268199999999993</c:v>
+                  <c:v>6.7665199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.454700000000003</c:v>
+                  <c:v>6.92699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.409000000000006</c:v>
+                  <c:v>7.0607100000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.169200000000004</c:v>
+                  <c:v>6.9537300000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.308599999999998</c:v>
+                  <c:v>32.6023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4618900000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -499,11 +442,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="440927240"/>
-        <c:axId val="440922928"/>
+        <c:axId val="267619360"/>
+        <c:axId val="267618968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="440927240"/>
+        <c:axId val="267619360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +544,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440922928"/>
+        <c:crossAx val="267618968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -609,7 +552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440922928"/>
+        <c:axId val="267618968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,7 +659,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440927240"/>
+        <c:crossAx val="267619360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -897,36 +840,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$6:$K$6</c:f>
+              <c:f>Feuil1!$B$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.8020999999999998</c:v>
+                  <c:v>2.6613000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8025000000000002</c:v>
+                  <c:v>3.7101999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3004</c:v>
+                  <c:v>2.6478000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1015000000000001</c:v>
+                  <c:v>2.7359</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4009</c:v>
+                  <c:v>2.0413999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0015000000000001</c:v>
+                  <c:v>2.2526999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6032000000000002</c:v>
+                  <c:v>6.6060999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3008</c:v>
+                  <c:v>3.8883999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2011000000000001</c:v>
+                  <c:v>3.1248999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,36 +896,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$19:$K$19</c:f>
+              <c:f>Feuil1!$B$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.401</c:v>
+                  <c:v>3.6282999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5007999999999999</c:v>
+                  <c:v>2.6821000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80030000000000001</c:v>
+                  <c:v>1.2266999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60040000000000004</c:v>
+                  <c:v>1.5946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50049999999999994</c:v>
+                  <c:v>1.5518000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9002</c:v>
+                  <c:v>1.5412999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3029000000000002</c:v>
+                  <c:v>7.6921999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60070000000000001</c:v>
+                  <c:v>2.2578999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70030000000000003</c:v>
+                  <c:v>3.1254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,11 +944,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="439482040"/>
-        <c:axId val="439486352"/>
+        <c:axId val="267195720"/>
+        <c:axId val="267192976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439482040"/>
+        <c:axId val="267195720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1051,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439486352"/>
+        <c:crossAx val="267192976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1110,7 +1059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439486352"/>
+        <c:axId val="267192976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1176,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439482040"/>
+        <c:crossAx val="267195720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1347,8 +1296,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-CH" baseline="0"/>
-              <a:t> collisions - remplissage des buckets</a:t>
+              <a:t> collisions - remplissage des </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>lignes</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1407,36 +1363,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$28:$K$28</c:f>
+              <c:f>Feuil1!$B$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.73</c:v>
+                  <c:v>44.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.39</c:v>
+                  <c:v>44.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.48</c:v>
+                  <c:v>44.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.97</c:v>
+                  <c:v>45.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.65</c:v>
+                  <c:v>45.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.53</c:v>
+                  <c:v>44.42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.74</c:v>
+                  <c:v>44.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7</c:v>
+                  <c:v>44.77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.54</c:v>
+                  <c:v>68.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,7 +1405,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Pourcentage de buckets vides</c:v>
+            <c:v>Pourcentage d'indices vides</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1460,36 +1419,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$30:$K$30</c:f>
+              <c:f>Feuil1!$B$31:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>85.173500000000004</c:v>
+                  <c:v>25.794899999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.118799999999993</c:v>
+                  <c:v>26.4467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.900800000000004</c:v>
+                  <c:v>25.941199999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.212000000000003</c:v>
+                  <c:v>27.005500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.160600000000002</c:v>
+                  <c:v>27.005500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.141300000000001</c:v>
+                  <c:v>26.0609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.1751</c:v>
+                  <c:v>26.233899999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.168599999999998</c:v>
+                  <c:v>26.526499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.498599999999996</c:v>
+                  <c:v>57.469700000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.859100000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,11 +1467,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="443335880"/>
-        <c:axId val="443341760"/>
+        <c:axId val="267196112"/>
+        <c:axId val="378348208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443335880"/>
+        <c:axId val="267196112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,7 +1569,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443341760"/>
+        <c:crossAx val="378348208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1615,7 +1577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443341760"/>
+        <c:axId val="378348208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,7 +1684,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443335880"/>
+        <c:crossAx val="267196112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1903,36 +1865,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$24:$K$24</c:f>
+              <c:f>Feuil1!$B$25:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.9020000000000001</c:v>
+                  <c:v>2.1537000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0019999999999998</c:v>
+                  <c:v>4.6875999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2014999999999998</c:v>
+                  <c:v>1.5624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8008</c:v>
+                  <c:v>3.1255999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0015000000000001</c:v>
+                  <c:v>1.5650999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7004999999999999</c:v>
+                  <c:v>1.5626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4031000000000002</c:v>
+                  <c:v>6.2502000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6012999999999999</c:v>
+                  <c:v>3.1253000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6013999999999999</c:v>
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,36 +1921,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$37:$K$37</c:f>
+              <c:f>Feuil1!$B$38:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6007</c:v>
+                  <c:v>0.61150000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7021999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80049999999999999</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0006999999999999</c:v>
+                  <c:v>3.1244999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60040000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70040000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9022999999999999</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0002</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,11 +1969,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="429538064"/>
-        <c:axId val="429539632"/>
+        <c:axId val="446064096"/>
+        <c:axId val="446066056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="429538064"/>
+        <c:axId val="446064096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,14 +1999,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CH" sz="1000" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Fonction de hachage</a:t>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Fonction</a:t>
                 </a:r>
-                <a:endParaRPr lang="fr-CH" sz="400">
-                  <a:effectLst/>
-                </a:endParaRPr>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> de hachage</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2108,7 +2076,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429539632"/>
+        <c:crossAx val="446066056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2116,7 +2084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429539632"/>
+        <c:axId val="446066056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,26 +2124,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CH" sz="1000" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="fr-CH"/>
                   <a:t>Temps [</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" baseline="0">
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>μ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="fr-CH" sz="1000" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="fr-CH"/>
                   <a:t>s]</a:t>
                 </a:r>
-                <a:endParaRPr lang="fr-CH" sz="400">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2240,7 +2201,1032 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429538064"/>
+        <c:crossAx val="446064096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Performances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> collisions - remplissage des </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>lignes</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pourcentage de collisions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$48:$K$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>82.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pourcentage d'indices vides</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$50:$K$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.28719099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.172315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45950600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11487700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.172315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34462999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68925899999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28719099999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9368200000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57438299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="385240192"/>
+        <c:axId val="385245288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="385240192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Fonction de hachage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385245288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385245288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Pourcentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385240192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Performances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> insertion - recherche</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Temps moyen d'insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.6613000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7101999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0413999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2526999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6060999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8883999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1248999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Temps moyen de recherche</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.6282999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6821000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5518000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2578999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="445175592"/>
+        <c:axId val="445173632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445175592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Fonction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> de hachage</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445173632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445173632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Temps [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445175592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2481,6 +3467,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4493,20 +5559,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>71997</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4764</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3961</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>78161</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10125</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>80964</xdr:rowOff>
+      <xdr:rowOff>67356</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4527,16 +6599,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>78161</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>87686</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19650</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>67354</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4558,15 +6630,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>67237</xdr:colOff>
+      <xdr:colOff>761201</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>73401</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5365</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4590,19 +6662,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:colOff>748392</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>87966</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>757917</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>62592</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Graphique 11"/>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4614,6 +6686,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>748392</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>754556</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>754556</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>2081</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4885,2257 +7021,1990 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K205"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>26613</v>
+      </c>
+      <c r="C5" s="3">
+        <v>37102</v>
+      </c>
+      <c r="D5" s="3">
+        <v>26478</v>
+      </c>
+      <c r="E5" s="3">
+        <v>27359</v>
+      </c>
+      <c r="F5" s="3">
+        <v>20414</v>
+      </c>
+      <c r="G5" s="3">
+        <v>22527</v>
+      </c>
+      <c r="H5" s="3">
+        <v>66061</v>
+      </c>
+      <c r="I5" s="4">
+        <v>38884</v>
+      </c>
+      <c r="J5" s="3">
+        <v>31249</v>
+      </c>
+      <c r="K5" s="3">
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.6613000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.7101999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.6478000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.7359</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.0413999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.2526999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6.6060999999999996</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.8883999999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.1248999999999998</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3739</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3739</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3739</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3739</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3739</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3739</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3739</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3739</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3739</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6535</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6518</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6514</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6533</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6514</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6520</v>
+      </c>
+      <c r="H9" s="4">
+        <v>6525</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6521</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7480</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="C10" s="2">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="D10" s="2">
+        <v>65.14</v>
+      </c>
+      <c r="E10" s="2">
+        <v>65.33</v>
+      </c>
+      <c r="F10" s="2">
+        <v>65.14</v>
+      </c>
+      <c r="G10" s="2">
+        <v>65.2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>65.25</v>
+      </c>
+      <c r="I10" s="2">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="J10" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>274</v>
+      </c>
+      <c r="C11" s="4">
+        <v>257</v>
+      </c>
+      <c r="D11" s="4">
+        <v>253</v>
+      </c>
+      <c r="E11" s="4">
+        <v>272</v>
+      </c>
+      <c r="F11" s="4">
+        <v>253</v>
+      </c>
+      <c r="G11" s="4">
+        <v>259</v>
+      </c>
+      <c r="H11" s="4">
+        <v>264</v>
+      </c>
+      <c r="I11" s="4">
+        <v>260</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1219</v>
+      </c>
+      <c r="K11" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7.3281599999999996</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.8734999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.7665199999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7.2746700000000004</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.7665199999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6.92699</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7.0607100000000003</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6.9537300000000002</v>
+      </c>
+      <c r="J12" s="2">
+        <v>32.6023</v>
+      </c>
+      <c r="K12" s="2">
+        <v>7.4618900000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F13" s="4">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G13" s="4">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4">
+        <v>11</v>
+      </c>
+      <c r="I13" s="4">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="J13" s="3">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K16" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="B17" s="4">
         <v>10000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C17" s="4">
         <v>10000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D17" s="4">
         <v>10000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E17" s="4">
         <v>10000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="F17" s="4">
         <v>10000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G17" s="4">
         <v>10000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H17" s="4">
         <v>10000</v>
       </c>
-      <c r="J4" s="1">
+      <c r="I17" s="4">
         <v>10000</v>
       </c>
-      <c r="K4" s="1">
+      <c r="J17" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>28021</v>
-      </c>
-      <c r="D5" s="1">
-        <v>28025</v>
-      </c>
-      <c r="E5" s="1">
-        <v>13004</v>
-      </c>
-      <c r="F5" s="1">
-        <v>21015</v>
-      </c>
-      <c r="G5" s="1">
-        <v>14009</v>
-      </c>
-      <c r="H5" s="1">
-        <v>20015</v>
-      </c>
-      <c r="I5" s="1">
-        <v>46032</v>
-      </c>
-      <c r="J5" s="1">
-        <v>13008</v>
-      </c>
-      <c r="K5" s="1">
-        <v>12011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="K17" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4">
+        <v>36283</v>
+      </c>
+      <c r="C18" s="4">
+        <v>26821</v>
+      </c>
+      <c r="D18" s="4">
+        <v>12267</v>
+      </c>
+      <c r="E18" s="4">
+        <v>15946</v>
+      </c>
+      <c r="F18" s="4">
+        <v>15518</v>
+      </c>
+      <c r="G18" s="4">
+        <v>15413</v>
+      </c>
+      <c r="H18" s="4">
+        <v>76922</v>
+      </c>
+      <c r="I18" s="4">
+        <v>22579</v>
+      </c>
+      <c r="J18" s="3">
+        <v>31254</v>
+      </c>
+      <c r="K18" s="3">
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.6282999999999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.6821000000000002</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.2266999999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.5946</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.5518000000000001</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.5412999999999999</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7.6921999999999997</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2.2578999999999998</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3.1254</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H23" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I23" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="4">
+        <v>10000</v>
+      </c>
+      <c r="K23" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
-        <v>2.8020999999999998</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.8025000000000002</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.3004</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.1015000000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.4009</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2.0015000000000001</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4.6032000000000002</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1.3008</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1.2011000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>26267</v>
-      </c>
-      <c r="D8" s="1">
-        <v>26267</v>
-      </c>
-      <c r="E8" s="1">
-        <v>26267</v>
-      </c>
-      <c r="F8" s="1">
-        <v>26267</v>
-      </c>
-      <c r="G8" s="1">
-        <v>26267</v>
-      </c>
-      <c r="H8" s="1">
-        <v>26267</v>
-      </c>
-      <c r="I8" s="1">
-        <v>26267</v>
-      </c>
-      <c r="J8" s="1">
-        <v>26267</v>
-      </c>
-      <c r="K8" s="1">
-        <v>26267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>1677</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1648</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1859</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1734</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1665</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1714</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1702</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1639</v>
-      </c>
-      <c r="K9" s="1">
-        <v>6141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4">
-        <v>16.77</v>
-      </c>
-      <c r="D10" s="2">
-        <v>16.48</v>
-      </c>
-      <c r="E10" s="2">
-        <v>18.59</v>
-      </c>
-      <c r="F10" s="2">
-        <v>17.34</v>
-      </c>
-      <c r="G10" s="2">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="H10" s="2">
-        <v>17.14</v>
-      </c>
-      <c r="I10" s="2">
-        <v>17.02</v>
-      </c>
-      <c r="J10" s="2">
-        <v>16.39</v>
-      </c>
-      <c r="K10" s="2">
-        <v>61.41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
-        <v>17944</v>
-      </c>
-      <c r="D11" s="1">
-        <v>17915</v>
-      </c>
-      <c r="E11" s="1">
-        <v>18126</v>
-      </c>
-      <c r="F11" s="1">
-        <v>18001</v>
-      </c>
-      <c r="G11" s="1">
-        <v>17932</v>
-      </c>
-      <c r="H11" s="1">
-        <v>17981</v>
-      </c>
-      <c r="I11" s="1">
-        <v>17969</v>
-      </c>
-      <c r="J11" s="1">
-        <v>17906</v>
-      </c>
-      <c r="K11" s="1">
-        <v>22408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>68.313900000000004</v>
-      </c>
-      <c r="D12" s="2">
-        <v>68.203400000000002</v>
-      </c>
-      <c r="E12" s="2">
-        <v>69.006699999999995</v>
-      </c>
-      <c r="F12" s="2">
-        <v>68.530900000000003</v>
-      </c>
-      <c r="G12" s="2">
-        <v>68.268199999999993</v>
-      </c>
-      <c r="H12" s="2">
-        <v>68.454700000000003</v>
-      </c>
-      <c r="I12" s="2">
-        <v>68.409000000000006</v>
-      </c>
-      <c r="J12" s="2">
-        <v>68.169200000000004</v>
-      </c>
-      <c r="K12" s="2">
-        <v>85.308599999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4</v>
-      </c>
-      <c r="K13" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1">
+      <c r="B24" s="4">
+        <v>21537</v>
+      </c>
+      <c r="C24" s="4">
+        <v>46876</v>
+      </c>
+      <c r="D24" s="4">
+        <v>15624</v>
+      </c>
+      <c r="E24" s="4">
+        <v>31256</v>
+      </c>
+      <c r="F24" s="4">
+        <v>15651</v>
+      </c>
+      <c r="G24" s="4">
+        <v>15626</v>
+      </c>
+      <c r="H24" s="4">
+        <v>62502</v>
+      </c>
+      <c r="I24" s="4">
+        <v>31253</v>
+      </c>
+      <c r="J24" s="4">
+        <v>15625</v>
+      </c>
+      <c r="K24" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K16" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K17" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <v>14010</v>
-      </c>
-      <c r="D18" s="1">
-        <v>15008</v>
-      </c>
-      <c r="E18" s="1">
-        <v>8003</v>
-      </c>
-      <c r="F18" s="1">
-        <v>6004</v>
-      </c>
-      <c r="G18" s="1">
-        <v>5005</v>
-      </c>
-      <c r="H18" s="1">
-        <v>9002</v>
-      </c>
-      <c r="I18" s="1">
-        <v>43029</v>
-      </c>
-      <c r="J18" s="1">
-        <v>6007</v>
-      </c>
-      <c r="K18" s="1">
-        <v>7003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
-        <v>1.401</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.5007999999999999</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.80030000000000001</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.60040000000000004</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.50049999999999994</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.9002</v>
-      </c>
-      <c r="I19" s="2">
-        <v>4.3029000000000002</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.60070000000000001</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.70030000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K22" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1">
-        <v>29020</v>
-      </c>
-      <c r="D23" s="1">
-        <v>30020</v>
-      </c>
-      <c r="E23" s="1">
-        <v>22015</v>
-      </c>
-      <c r="F23" s="1">
-        <v>18008</v>
-      </c>
-      <c r="G23" s="1">
-        <v>20015</v>
-      </c>
-      <c r="H23" s="1">
-        <v>17005</v>
-      </c>
-      <c r="I23" s="1">
-        <v>44031</v>
-      </c>
-      <c r="J23" s="1">
-        <v>16013</v>
-      </c>
-      <c r="K23" s="1">
-        <v>16014</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1">
-        <v>2.9020000000000001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3.0019999999999998</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2.2014999999999998</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1.8008</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2.0015000000000001</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1.7004999999999999</v>
-      </c>
-      <c r="I24" s="1">
-        <v>4.4031000000000002</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1.6012999999999999</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1.6013999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="B25" s="2">
+        <v>2.1537000000000002</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.6875999999999998</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.5624</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.1255999999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.5650999999999999</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.5626</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6.2502000000000004</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3.1253000000000002</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1.5625</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4">
+        <v>7517</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7517</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7517</v>
+      </c>
+      <c r="E27" s="4">
+        <v>7517</v>
+      </c>
+      <c r="F27" s="4">
+        <v>7517</v>
+      </c>
+      <c r="G27" s="4">
+        <v>7517</v>
+      </c>
+      <c r="H27" s="4">
+        <v>7517</v>
+      </c>
+      <c r="I27" s="4">
+        <v>7517</v>
+      </c>
+      <c r="J27" s="4">
+        <v>7517</v>
+      </c>
+      <c r="K27" s="4">
+        <v>7517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4422</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4471</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4433</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4513</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4513</v>
+      </c>
+      <c r="G28" s="4">
+        <v>4442</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4455</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4477</v>
+      </c>
+      <c r="J28" s="4">
+        <v>6803</v>
+      </c>
+      <c r="K28" s="4">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44.22</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44.71</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44.33</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45.13</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45.13</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44.42</v>
+      </c>
+      <c r="H29" s="2">
+        <v>44.55</v>
+      </c>
+      <c r="I29" s="2">
+        <v>44.77</v>
+      </c>
+      <c r="J29" s="2">
+        <v>68.03</v>
+      </c>
+      <c r="K29" s="2">
+        <v>45.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1939</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1988</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1950</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2030</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2030</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1959</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1972</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1994</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4320</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2">
+        <v>25.794899999999998</v>
+      </c>
+      <c r="C31" s="2">
+        <v>26.4467</v>
+      </c>
+      <c r="D31" s="2">
+        <v>25.941199999999998</v>
+      </c>
+      <c r="E31" s="2">
+        <v>27.005500000000001</v>
+      </c>
+      <c r="F31" s="2">
+        <v>27.005500000000001</v>
+      </c>
+      <c r="G31" s="2">
+        <v>26.0609</v>
+      </c>
+      <c r="H31" s="2">
+        <v>26.233899999999998</v>
+      </c>
+      <c r="I31" s="2">
+        <v>26.526499999999999</v>
+      </c>
+      <c r="J31" s="2">
+        <v>57.469700000000003</v>
+      </c>
+      <c r="K31" s="2">
+        <v>26.859100000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4">
+        <v>9</v>
+      </c>
+      <c r="G32" s="4">
+        <v>7</v>
+      </c>
+      <c r="H32" s="4">
+        <v>8</v>
+      </c>
+      <c r="I32" s="4">
+        <v>7</v>
+      </c>
+      <c r="J32" s="4">
+        <v>16</v>
+      </c>
+      <c r="K32" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C35" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D35" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F35" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G35" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H35" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J35" s="4">
+        <v>10000</v>
+      </c>
+      <c r="K35" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F36" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G36" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H36" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I36" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J36" s="4">
+        <v>10000</v>
+      </c>
+      <c r="K36" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1">
-        <v>62233</v>
-      </c>
-      <c r="D26" s="1">
-        <v>62233</v>
-      </c>
-      <c r="E26" s="1">
-        <v>62233</v>
-      </c>
-      <c r="F26" s="1">
-        <v>62233</v>
-      </c>
-      <c r="G26" s="1">
-        <v>62233</v>
-      </c>
-      <c r="H26" s="1">
-        <v>62233</v>
-      </c>
-      <c r="I26" s="1">
-        <v>62233</v>
-      </c>
-      <c r="J26" s="1">
-        <v>62233</v>
-      </c>
-      <c r="K26" s="1">
-        <v>62233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B37" s="4">
+        <v>6115</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>15625</v>
+      </c>
+      <c r="E37" s="4">
+        <v>31245</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>15625</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>15626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1">
-        <v>773</v>
-      </c>
-      <c r="D27" s="1">
-        <v>739</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1848</v>
-      </c>
-      <c r="F27" s="1">
-        <v>797</v>
-      </c>
-      <c r="G27" s="1">
-        <v>765</v>
-      </c>
-      <c r="H27" s="1">
-        <v>753</v>
-      </c>
-      <c r="I27" s="1">
-        <v>774</v>
-      </c>
-      <c r="J27" s="1">
-        <v>770</v>
-      </c>
-      <c r="K27" s="1">
-        <v>5954</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B38" s="2">
+        <v>0.61150000000000004</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.5625</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3.1244999999999998</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1.5625</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1.5626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C42" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D42" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F42" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G42" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H42" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I42" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J42" s="4">
+        <v>10000</v>
+      </c>
+      <c r="K42" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="4">
+        <v>27682</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>15626</v>
+      </c>
+      <c r="F43" s="4">
+        <v>31252</v>
+      </c>
+      <c r="G43" s="4">
+        <v>31252</v>
+      </c>
+      <c r="H43" s="4">
+        <v>46882</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>15627</v>
+      </c>
+      <c r="K43" s="3">
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2.7682000000000002</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.5626</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3.1252</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3.1252</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4.6882000000000001</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1.5627</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1741</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1741</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1741</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1741</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1741</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1741</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1741</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1741</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1741</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="4">
+        <v>8264</v>
+      </c>
+      <c r="C47" s="4">
+        <v>8262</v>
+      </c>
+      <c r="D47" s="4">
+        <v>8267</v>
+      </c>
+      <c r="E47" s="4">
+        <v>8261</v>
+      </c>
+      <c r="F47" s="4">
+        <v>8262</v>
+      </c>
+      <c r="G47" s="4">
+        <v>8265</v>
+      </c>
+      <c r="H47" s="4">
+        <v>8271</v>
+      </c>
+      <c r="I47" s="4">
+        <v>8264</v>
+      </c>
+      <c r="J47" s="4">
+        <v>8432</v>
+      </c>
+      <c r="K47" s="3">
+        <v>8269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2">
+        <v>82.64</v>
+      </c>
+      <c r="C48" s="2">
+        <v>82.62</v>
+      </c>
+      <c r="D48" s="2">
+        <v>82.67</v>
+      </c>
+      <c r="E48" s="2">
+        <v>82.61</v>
+      </c>
+      <c r="F48" s="2">
+        <v>82.62</v>
+      </c>
+      <c r="G48" s="2">
+        <v>82.65</v>
+      </c>
+      <c r="H48" s="2">
+        <v>82.71</v>
+      </c>
+      <c r="I48" s="2">
+        <v>82.64</v>
+      </c>
+      <c r="J48" s="2">
+        <v>84.32</v>
+      </c>
+      <c r="K48" s="2">
+        <v>82.69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="4">
+        <v>5</v>
+      </c>
+      <c r="C49" s="4">
+        <v>3</v>
+      </c>
+      <c r="D49" s="4">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>3</v>
+      </c>
+      <c r="G49" s="4">
+        <v>6</v>
+      </c>
+      <c r="H49" s="4">
+        <v>12</v>
+      </c>
+      <c r="I49" s="4">
+        <v>5</v>
+      </c>
+      <c r="J49" s="4">
+        <v>173</v>
+      </c>
+      <c r="K49" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.28719099999999997</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.172315</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.45950600000000003</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.11487700000000001</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.172315</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.34462999999999999</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.68925899999999996</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.28719099999999997</v>
+      </c>
+      <c r="J50" s="2">
+        <v>9.9368200000000009</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.57438299999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="4">
+        <v>17</v>
+      </c>
+      <c r="C51" s="4">
+        <v>14</v>
+      </c>
+      <c r="D51" s="4">
+        <v>15</v>
+      </c>
+      <c r="E51" s="4">
         <v>18</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28">
-        <v>7.73</v>
-      </c>
-      <c r="D28">
-        <v>7.39</v>
-      </c>
-      <c r="E28">
-        <v>18.48</v>
-      </c>
-      <c r="F28">
-        <v>7.97</v>
-      </c>
-      <c r="G28">
-        <v>7.65</v>
-      </c>
-      <c r="H28">
-        <v>7.53</v>
-      </c>
-      <c r="I28">
-        <v>7.74</v>
-      </c>
-      <c r="J28">
-        <v>7.7</v>
-      </c>
-      <c r="K28" s="5">
-        <v>59.54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1">
-        <v>53006</v>
-      </c>
-      <c r="D29" s="1">
-        <v>52972</v>
-      </c>
-      <c r="E29" s="1">
-        <v>54081</v>
-      </c>
-      <c r="F29" s="1">
-        <v>53030</v>
-      </c>
-      <c r="G29" s="1">
-        <v>52998</v>
-      </c>
-      <c r="H29" s="1">
-        <v>52986</v>
-      </c>
-      <c r="I29" s="1">
-        <v>53007</v>
-      </c>
-      <c r="J29" s="1">
-        <v>53003</v>
-      </c>
-      <c r="K29" s="1">
-        <v>58187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="F51" s="4">
+        <v>14</v>
+      </c>
+      <c r="G51" s="4">
+        <v>15</v>
+      </c>
+      <c r="H51" s="4">
+        <v>15</v>
+      </c>
+      <c r="I51" s="4">
+        <v>14</v>
+      </c>
+      <c r="J51" s="4">
+        <v>25</v>
+      </c>
+      <c r="K51" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30">
-        <v>85.173500000000004</v>
-      </c>
-      <c r="D30">
-        <v>85.118799999999993</v>
-      </c>
-      <c r="E30">
-        <v>86.900800000000004</v>
-      </c>
-      <c r="F30">
-        <v>85.212000000000003</v>
-      </c>
-      <c r="G30">
-        <v>85.160600000000002</v>
-      </c>
-      <c r="H30">
-        <v>85.141300000000001</v>
-      </c>
-      <c r="I30">
-        <v>85.1751</v>
-      </c>
-      <c r="J30">
-        <v>85.168599999999998</v>
-      </c>
-      <c r="K30">
-        <v>93.498599999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1">
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C54" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D54" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E54" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F54" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G54" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H54" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I54" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J54" s="4">
+        <v>10000</v>
+      </c>
+      <c r="K54" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="K55" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="4">
+        <v>2048</v>
+      </c>
+      <c r="C56" s="4">
+        <v>15624</v>
+      </c>
+      <c r="D56" s="4">
+        <v>15625</v>
+      </c>
+      <c r="E56" s="4">
+        <v>31254</v>
+      </c>
+      <c r="F56" s="4">
+        <v>46874</v>
+      </c>
+      <c r="G56" s="4">
+        <v>15626</v>
+      </c>
+      <c r="H56" s="4">
+        <v>46877</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
         <v>4</v>
       </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1">
-        <v>4</v>
-      </c>
-      <c r="G31" s="1">
-        <v>4</v>
-      </c>
-      <c r="H31" s="1">
-        <v>4</v>
-      </c>
-      <c r="I31" s="1">
-        <v>4</v>
-      </c>
-      <c r="J31" s="1">
-        <v>4</v>
-      </c>
-      <c r="K31" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1">
+      <c r="K56" s="3">
+        <v>15624</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.5624</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.5625</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3.1254</v>
+      </c>
+      <c r="F57" s="2">
+        <v>4.6874000000000002</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1.5626</v>
+      </c>
+      <c r="H57" s="2">
+        <v>4.6877000000000004</v>
+      </c>
+      <c r="I57" s="2">
         <v>0</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J34">
-        <v>10000</v>
-      </c>
-      <c r="K34" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J35">
-        <v>10000</v>
-      </c>
-      <c r="K35" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1">
-        <v>16007</v>
-      </c>
-      <c r="D36" s="1">
-        <v>27022</v>
-      </c>
-      <c r="E36" s="1">
-        <v>8005</v>
-      </c>
-      <c r="F36" s="1">
-        <v>10007</v>
-      </c>
-      <c r="G36" s="1">
-        <v>6004</v>
-      </c>
-      <c r="H36" s="1">
-        <v>7004</v>
-      </c>
-      <c r="I36" s="1">
-        <v>39023</v>
-      </c>
-      <c r="J36">
-        <v>15002</v>
-      </c>
-      <c r="K36" s="1">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1">
-        <v>1.6007</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2.7021999999999999</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.80049999999999999</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1.0006999999999999</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.60040000000000004</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.70040000000000002</v>
-      </c>
-      <c r="I37" s="1">
-        <v>3.9022999999999999</v>
-      </c>
-      <c r="J37">
-        <v>1.5002</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1.0002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D40" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E40" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F40" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G40" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H40" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I40" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J40">
-        <v>10000</v>
-      </c>
-      <c r="K40">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="1">
-        <v>29015</v>
-      </c>
-      <c r="D41" s="1">
-        <v>13007</v>
-      </c>
-      <c r="E41" s="1">
-        <v>20021</v>
-      </c>
-      <c r="F41" s="1">
-        <v>11009</v>
-      </c>
-      <c r="G41" s="1">
-        <v>23032</v>
-      </c>
-      <c r="H41" s="1">
-        <v>20001</v>
-      </c>
-      <c r="I41" s="1">
-        <v>46027</v>
-      </c>
-      <c r="J41">
-        <v>13013</v>
-      </c>
-      <c r="K41">
-        <v>21015</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42">
-        <v>2.9015</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1.3007</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2.0021</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1.1009</v>
-      </c>
-      <c r="G42" s="1">
-        <v>2.3031999999999999</v>
-      </c>
-      <c r="H42" s="1">
-        <v>2.0001000000000002</v>
-      </c>
-      <c r="I42" s="1">
-        <v>4.6026999999999996</v>
-      </c>
-      <c r="J42">
-        <v>1.3012999999999999</v>
-      </c>
-      <c r="K42">
-        <v>2.1015000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44">
-        <v>15173</v>
-      </c>
-      <c r="D44" s="1">
-        <v>15173</v>
-      </c>
-      <c r="E44" s="1">
-        <v>15173</v>
-      </c>
-      <c r="F44" s="1">
-        <v>15173</v>
-      </c>
-      <c r="G44" s="1">
-        <v>15173</v>
-      </c>
-      <c r="H44" s="1">
-        <v>15173</v>
-      </c>
-      <c r="I44" s="1">
-        <v>15173</v>
-      </c>
-      <c r="J44">
-        <v>15173</v>
-      </c>
-      <c r="K44">
-        <v>15173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J45" t="s">
-        <v>46</v>
-      </c>
-      <c r="K45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" t="s">
-        <v>55</v>
-      </c>
-      <c r="K46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1">
-        <v>5</v>
-      </c>
-      <c r="E47" s="1">
-        <v>6</v>
-      </c>
-      <c r="F47" s="1">
-        <v>6</v>
-      </c>
-      <c r="G47" s="1">
-        <v>6</v>
-      </c>
-      <c r="H47" s="1">
-        <v>6</v>
-      </c>
-      <c r="I47" s="1">
-        <v>5</v>
-      </c>
-      <c r="J47">
-        <v>6</v>
-      </c>
-      <c r="K47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50">
-        <v>10000</v>
-      </c>
-      <c r="D50" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E50" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F50" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G50" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H50" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I50" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J50">
-        <v>10000</v>
-      </c>
-      <c r="K50">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J51" t="s">
-        <v>57</v>
-      </c>
-      <c r="K51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52">
-        <v>19013</v>
-      </c>
-      <c r="D52" s="1">
-        <v>19018</v>
-      </c>
-      <c r="E52" s="1">
-        <v>15020</v>
-      </c>
-      <c r="F52" s="1">
-        <v>11003</v>
-      </c>
-      <c r="G52" s="1">
-        <v>10007</v>
-      </c>
-      <c r="H52" s="1">
-        <v>9008</v>
-      </c>
-      <c r="I52" s="1">
-        <v>47029</v>
-      </c>
-      <c r="J52">
-        <v>8005</v>
-      </c>
-      <c r="K52">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53">
-        <v>1.9013</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.9017999999999999</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1.502</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1.1003000000000001</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1.0006999999999999</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.90080000000000005</v>
-      </c>
-      <c r="I53" s="1">
-        <v>4.7028999999999996</v>
-      </c>
-      <c r="J53">
-        <v>0.80049999999999999</v>
-      </c>
-      <c r="K53">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1"/>
+      <c r="J57" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1.5624</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="1"/>
+      <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A59" s="3"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A60" s="3"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A61" s="3"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A62" s="3"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A63" s="3"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>38</v>
-      </c>
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASD2/Labo4/statistiques.xlsx
+++ b/ASD2/Labo4/statistiques.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Christophe-Samuel\ASD2\Labo4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Christophe-Samuel\ASD2\Labo4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -442,11 +442,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="267619360"/>
-        <c:axId val="267618968"/>
+        <c:axId val="-857737120"/>
+        <c:axId val="-857747456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267619360"/>
+        <c:axId val="-857737120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +544,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267618968"/>
+        <c:crossAx val="-857747456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -552,7 +552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267618968"/>
+        <c:axId val="-857747456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +659,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267619360"/>
+        <c:crossAx val="-857737120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -944,11 +944,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="267195720"/>
-        <c:axId val="267192976"/>
+        <c:axId val="-857745824"/>
+        <c:axId val="-857751808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267195720"/>
+        <c:axId val="-857745824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1051,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267192976"/>
+        <c:crossAx val="-857751808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1059,7 +1059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267192976"/>
+        <c:axId val="-857751808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1176,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267195720"/>
+        <c:crossAx val="-857745824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1467,11 +1467,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="267196112"/>
-        <c:axId val="378348208"/>
+        <c:axId val="-857751264"/>
+        <c:axId val="-857746912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267196112"/>
+        <c:axId val="-857751264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1569,7 +1569,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378348208"/>
+        <c:crossAx val="-857746912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1577,7 +1577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378348208"/>
+        <c:axId val="-857746912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1684,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267196112"/>
+        <c:crossAx val="-857751264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1969,11 +1969,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="446064096"/>
-        <c:axId val="446066056"/>
+        <c:axId val="-857740384"/>
+        <c:axId val="-857738752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446064096"/>
+        <c:axId val="-857740384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +2076,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446066056"/>
+        <c:crossAx val="-857738752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2084,7 +2084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446066056"/>
+        <c:axId val="-857738752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2201,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446064096"/>
+        <c:crossAx val="-857740384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2492,11 +2492,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="385240192"/>
-        <c:axId val="385245288"/>
+        <c:axId val="-1015537424"/>
+        <c:axId val="-1015534704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="385240192"/>
+        <c:axId val="-1015537424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2594,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385245288"/>
+        <c:crossAx val="-1015534704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2602,7 +2602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="385245288"/>
+        <c:axId val="-1015534704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,7 +2709,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385240192"/>
+        <c:crossAx val="-1015537424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2994,11 +2994,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="445175592"/>
-        <c:axId val="445173632"/>
+        <c:axId val="-802846736"/>
+        <c:axId val="-802839664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445175592"/>
+        <c:axId val="-802846736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3101,7 +3101,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445173632"/>
+        <c:crossAx val="-802839664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3109,7 +3109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445173632"/>
+        <c:axId val="-802839664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3226,7 +3226,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445175592"/>
+        <c:crossAx val="-802846736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7023,8 +7023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ASD2/Labo4/statistiques.xlsx
+++ b/ASD2/Labo4/statistiques.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Christophe-Samuel\ASD2\Labo4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Christophe-Samuel\ASD2\Labo4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>12DirectoryPolILj2EE</t>
   </si>
@@ -110,6 +110,12 @@
     <t>Search duration average time [μs]</t>
   </si>
   <si>
+    <t>MAX_LOAD_FACTOR = 6</t>
+  </si>
+  <si>
+    <t>MAX_LOAD_FACTOR = 2</t>
+  </si>
+  <si>
     <r>
       <t>19DirectoryWithoutAVS</t>
     </r>
@@ -122,14 +128,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (a nous)</t>
+      <t xml:space="preserve"> (modifié)</t>
     </r>
-  </si>
-  <si>
-    <t>MAX_LOAD_FACTOR = 6</t>
-  </si>
-  <si>
-    <t>MAX_LOAD_FACTOR = 2</t>
   </si>
 </sst>
 </file>
@@ -432,6 +432,54 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -440,13 +488,197 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-857737120"/>
-        <c:axId val="-857747456"/>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="284643720"/>
+        <c:axId val="284649992"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Temps moyen d'insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43137"/>
+                </a:srgbClr>
+              </a:outerShdw>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.6613000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7101999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0413999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2526999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6060999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8883999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1248999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Temps moyen de recherche</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.6282999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6821000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5518000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2578999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="558536488"/>
+        <c:axId val="452903448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-857737120"/>
+        <c:axId val="284643720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +776,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857747456"/>
+        <c:crossAx val="284649992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -552,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857747456"/>
+        <c:axId val="284649992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,10 +891,141 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857737120"/>
+        <c:crossAx val="284643720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="452903448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temps [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="900" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558536488"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="558536488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="452903448"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -673,6 +1036,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -779,13 +1158,28 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-CH" baseline="0"/>
-              <a:t> insertion - recherche</a:t>
+              <a:t> collisions - remplissage des lignes</a:t>
             </a:r>
-            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t>N/M = 4</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20198264282804751"/>
+          <c:y val="3.4904013961605585E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -817,7 +1211,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6567279239731629E-2"/>
+          <c:y val="0.1294589877835951"/>
+          <c:w val="0.81922114908787325"/>
+          <c:h val="0.66232620137142539"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -826,16 +1230,248 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Temps moyen d'insertion</c:v>
+            <c:v>Pourcentage de collisions</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pourcentage d'indices vides</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.3281599999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7665199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2746700000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7665199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.92699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0607100000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9537300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.6023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4618900000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="44045288"/>
+        <c:axId val="44047640"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Temps moyen d'insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43137"/>
+                </a:srgbClr>
+              </a:outerShdw>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -879,14 +1515,14 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="7"/>
           <c:tx>
             <c:v>Temps moyen de recherche</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="92D050"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -942,13 +1578,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-857745824"/>
-        <c:axId val="-857751808"/>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="44045680"/>
+        <c:axId val="44046856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-857745824"/>
+        <c:axId val="44045288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,530 +1611,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-CH"/>
-                  <a:t>Fonction</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-CH" baseline="0"/>
-                  <a:t> de hachage</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-CH"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-857751808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-857751808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-CH"/>
-                  <a:t>Temps [</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>μ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-CH"/>
-                  <a:t>s]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-857745824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-CH"/>
-              <a:t>Performances</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-CH" baseline="0"/>
-              <a:t> collisions - remplissage des </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>lignes</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-CH" baseline="0"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Pourcentage de collisions</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$B$29:$K$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>44.22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44.33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44.42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44.77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Pourcentage d'indices vides</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$B$31:$K$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>25.794899999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.4467</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.941199999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.005500000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.005500000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26.0609</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.233899999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.526499999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57.469700000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.859100000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-857751264"/>
-        <c:axId val="-857746912"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-857751264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-CH"/>
-                  <a:t>fonction de hachage</a:t>
+                  <a:t>Fonction de hachage</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1569,7 +1682,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857746912"/>
+        <c:crossAx val="44047640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1577,7 +1690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857746912"/>
+        <c:axId val="44047640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,10 +1797,142 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857751264"/>
+        <c:crossAx val="44045288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="44046856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temps [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="900" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44045680"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="44045680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44046856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1698,7 +1943,32 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.860869945767254E-2"/>
+          <c:y val="0.91445548364046114"/>
+          <c:w val="0.94278260108465495"/>
+          <c:h val="6.6913251437053664E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1765,7 +2035,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1804,13 +2074,40 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-CH" baseline="0"/>
-              <a:t> insertion - recherche</a:t>
+              <a:t> collisions - re</a:t>
             </a:r>
-            <a:endParaRPr lang="fr-CH"/>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" baseline="0"/>
+              <a:t>mplissage des lignes</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N/M = 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20412030849713689"/>
+          <c:y val="3.4904013961605585E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1842,530 +2139,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Temps moyen d'insertion</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$B$25:$K$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.1537000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6875999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5624</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1255999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5650999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5626</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2502000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1253000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Temps moyen de recherche</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$B$38:$K$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.61150000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1244999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5626</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-857740384"/>
-        <c:axId val="-857738752"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-857740384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-CH"/>
-                  <a:t>Fonction</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-CH" baseline="0"/>
-                  <a:t> de hachage</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-CH"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-857738752"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-857738752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-CH"/>
-                  <a:t>Temps [</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>μ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-CH"/>
-                  <a:t>s]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-857740384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-CH"/>
-              <a:t>Performances</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-CH" baseline="0"/>
-              <a:t> collisions - remplissage des </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>lignes</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-CH" baseline="0"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6567279239731629E-2"/>
+          <c:y val="0.1294589877835951"/>
+          <c:w val="0.81922114908787325"/>
+          <c:h val="0.66232620137142539"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2388,39 +2172,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$48:$K$48</c:f>
+              <c:f>Feuil1!$B$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>82.64</c:v>
+                  <c:v>44.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.62</c:v>
+                  <c:v>44.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.67</c:v>
+                  <c:v>44.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.61</c:v>
+                  <c:v>45.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.62</c:v>
+                  <c:v>45.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.65</c:v>
+                  <c:v>44.42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.71</c:v>
+                  <c:v>44.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.64</c:v>
+                  <c:v>44.77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.32</c:v>
+                  <c:v>68.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82.69</c:v>
+                  <c:v>45.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2444,39 +2228,264 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$50:$K$50</c:f>
+              <c:f>Feuil1!$B$31:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.28719099999999997</c:v>
+                  <c:v>25.794899999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.172315</c:v>
+                  <c:v>26.4467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45950600000000003</c:v>
+                  <c:v>25.941199999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11487700000000001</c:v>
+                  <c:v>27.005500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.172315</c:v>
+                  <c:v>27.005500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34462999999999999</c:v>
+                  <c:v>26.0609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68925899999999996</c:v>
+                  <c:v>26.233899999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28719099999999997</c:v>
+                  <c:v>26.526499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9368200000000009</c:v>
+                  <c:v>57.469700000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57438299999999998</c:v>
+                  <c:v>26.859100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="441697736"/>
+        <c:axId val="441698520"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Temps moyen d'insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.1537000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6875999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1255999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5650999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2502000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1253000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Temps moyen de recherche</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$38:$K$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.61150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1244999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2490,13 +2499,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1015537424"/>
-        <c:axId val="-1015534704"/>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="388300912"/>
+        <c:axId val="388300520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1015537424"/>
+        <c:axId val="441697736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2603,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1015534704"/>
+        <c:crossAx val="441698520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2602,7 +2611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1015534704"/>
+        <c:axId val="441698520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,10 +2718,142 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1015537424"/>
+        <c:crossAx val="441697736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="388300520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temps [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="900" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388300912"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="388300912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="388300520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2723,7 +2864,1883 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.860869945767254E-2"/>
+          <c:y val="0.91445548364046114"/>
+          <c:w val="0.94278260108465495"/>
+          <c:h val="6.6913251437053664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Performances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> collisions - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>remplissage des lignes</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N/M = 6</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20839563983531559"/>
+          <c:y val="3.4904013961605585E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6567279239731629E-2"/>
+          <c:y val="0.1294589877835951"/>
+          <c:w val="0.81922114908787325"/>
+          <c:h val="0.66232620137142539"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pourcentage de collisions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$48:$K$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>82.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pourcentage d'indices vides</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$50:$K$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.28719099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.172315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45950600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11487700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.172315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34462999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68925899999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28719099999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9368200000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57438299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="450854984"/>
+        <c:axId val="450856552"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Temps moyen d'insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$44:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.7682000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6882000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Temps moyen de recherche</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$57:$K$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.20480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6874000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6877000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="450857336"/>
+        <c:axId val="450858120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="450854984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Fonction de hachage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450856552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450856552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Pourcentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450854984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="450858120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temps [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="900" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450857336"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="450857336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="450858120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.860869945767254E-2"/>
+          <c:y val="0.91445548364046114"/>
+          <c:w val="0.94278260108465495"/>
+          <c:h val="6.6913251437053664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Performances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> collisions </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" baseline="0"/>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>remplissage des lignes</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N/M = 4</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20412030849713689"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6567279239731629E-2"/>
+          <c:y val="0.1294589877835951"/>
+          <c:w val="0.81922114908787325"/>
+          <c:h val="0.66232620137142539"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pourcentage de collisions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$67:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>74.896500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.886499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.994100000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.906499999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.878900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.895399999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.880600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.902799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.896600000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pourcentage d'indices vides</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$69:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0462099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.00719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0852300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.97753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0419200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.98417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0707900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.154399999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0466000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="388302088"/>
+        <c:axId val="450309696"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Temps moyen d'insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$63:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4818699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8284199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2064900000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.31277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1123099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.95339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7840699999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0939399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.398600000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0093299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Temps moyen de recherche</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$76:$K$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.98339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9846200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6856200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.36585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90637000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.984487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2815399999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2567600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.967700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="450308128"/>
+        <c:axId val="450307344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388302088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Fonction de hachage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450309696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450309696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Pourcentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388302088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="450307344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temps [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="900" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450308128"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="450308128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="450307344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.860869945767254E-2"/>
+          <c:y val="0.91445548364046114"/>
+          <c:w val="0.94278260108465495"/>
+          <c:h val="6.6913251437053664E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2829,13 +4846,46 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-CH" baseline="0"/>
-              <a:t> insertion - recherche</a:t>
+              <a:t> collision</a:t>
             </a:r>
-            <a:endParaRPr lang="fr-CH"/>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" baseline="0"/>
+              <a:t>s - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>remplissage des lignes</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N/M = 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20412030849713689"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2867,7 +4917,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6567279239731629E-2"/>
+          <c:y val="0.1294589877835951"/>
+          <c:w val="0.81922114908787325"/>
+          <c:h val="0.66232620137142539"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2876,11 +4936,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Temps moyen d'insertion</c:v>
+            <c:v>Pourcentage de collisions</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2890,39 +4950,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$6:$K$6</c:f>
+              <c:f>Feuil1!$B$86:$K$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6613000000000002</c:v>
+                  <c:v>55.555199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7101999999999999</c:v>
+                  <c:v>55.585900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6478000000000002</c:v>
+                  <c:v>96.994100000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7359</c:v>
+                  <c:v>55.534500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0413999999999999</c:v>
+                  <c:v>55.561199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2526999999999999</c:v>
+                  <c:v>55.5886</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6060999999999996</c:v>
+                  <c:v>55.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8883999999999999</c:v>
+                  <c:v>55.617699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1248999999999998</c:v>
+                  <c:v>99.526899999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5625</c:v>
+                  <c:v>55.608199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2932,11 +4992,11 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Temps moyen de recherche</c:v>
+            <c:v>Pourcentage d'indices vides</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="92D050"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2946,39 +5006,264 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$19:$K$19</c:f>
+              <c:f>Feuil1!$B$88:$K$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.6282999999999999</c:v>
+                  <c:v>14.5688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6821000000000002</c:v>
+                  <c:v>14.627800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2266999999999999</c:v>
+                  <c:v>94.222099999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5946</c:v>
+                  <c:v>14.529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5518000000000001</c:v>
+                  <c:v>14.580399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5412999999999999</c:v>
+                  <c:v>14.632999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6921999999999997</c:v>
+                  <c:v>14.597300000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2578999999999998</c:v>
+                  <c:v>14.689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1254</c:v>
+                  <c:v>99.090599999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5625</c:v>
+                  <c:v>14.6707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="44671816"/>
+        <c:axId val="44672992"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Temps moyen d'insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$82:$K$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.6050300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8910200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7394200000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.80524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5967199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6723499999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.65598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.705500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7521899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Temps moyen de recherche</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$95:$K$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.59074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6476500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7722600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2813099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1488700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93756200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6532099999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.936554</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.483499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.43652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2992,13 +5277,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-802846736"/>
-        <c:axId val="-802839664"/>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="44669856"/>
+        <c:axId val="44673776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-802846736"/>
+        <c:axId val="44671816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,13 +5310,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-CH"/>
-                  <a:t>Fonction</a:t>
+                  <a:t>Fonction de hachage</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-CH" baseline="0"/>
-                  <a:t> de hachage</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-CH"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3101,7 +5381,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-802839664"/>
+        <c:crossAx val="44672992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3109,9 +5389,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-802839664"/>
+        <c:axId val="44672992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3150,17 +5431,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-CH"/>
-                  <a:t>Temps [</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>μ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-CH"/>
-                  <a:t>s]</a:t>
+                  <a:t>Pourcentage</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3226,10 +5497,142 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-802846736"/>
+        <c:crossAx val="44671816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="44673776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temps [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="900" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44669856"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="44669856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44673776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3240,7 +5643,960 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.860869945767254E-2"/>
+          <c:y val="0.91445548364046114"/>
+          <c:w val="0.94278260108465495"/>
+          <c:h val="6.6913251437053664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Performances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> collisions </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" baseline="0"/>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>remplissage des lignes</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N/M = 6</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20625797416622627"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6567279239731629E-2"/>
+          <c:y val="0.1294589877835951"/>
+          <c:w val="0.81922114908787325"/>
+          <c:h val="0.66232620137142539"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pourcentage de collisions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$105:$K$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>74.896500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.886499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.994100000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.906499999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.878900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.895399999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.880600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.902799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.896600000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pourcentage d'indices vides</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$107:$K$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0462099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.00719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0852300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.97753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0419200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.98417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0707900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.154399999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0466000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="557572696"/>
+        <c:axId val="450308912"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Temps moyen d'insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$101:$K$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4093100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4022600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5625800000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5987399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7018599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.70682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7067800000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6268099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.774500000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2285599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Temps moyen de recherche</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$114:$K$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0794000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.96031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7902500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2768200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3068900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.23282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3039199999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2308399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.520499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.42696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-100"/>
+        <c:axId val="450306168"/>
+        <c:axId val="450309304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="557572696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Fonction de hachage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450308912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450308912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Pourcentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557572696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="450309304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temps [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="900" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450306168"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="450306168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="450309304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.860869945767254E-2"/>
+          <c:y val="0.91445548364046114"/>
+          <c:w val="0.94278260108465495"/>
+          <c:h val="6.6913251437053664E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3547,6 +6903,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6565,20 +9961,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3961</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>181656</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>445077</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>10125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>67356</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179244</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6599,20 +10498,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>10125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>181654</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>19650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>67354</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91168</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Graphique 9"/>
+        <xdr:cNvPr id="16" name="Graphique 15"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6630,19 +10529,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>761201</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>5365</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>62593</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>158025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Graphique 10"/>
+        <xdr:cNvPr id="17" name="Graphique 16"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6661,20 +10560,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>748392</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>757917</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>62592</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>158025</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>100693</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvPr id="18" name="Graphique 17"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6694,19 +10593,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>748392</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>754556</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171632</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvPr id="19" name="Graphique 18"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6725,20 +10624,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>754556</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>2081</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171631</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>182335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Graphique 7"/>
+        <xdr:cNvPr id="20" name="Graphique 19"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6750,6 +10649,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>185239</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Graphique 20"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7021,10 +10952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7073,7 +11004,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7635,7 +11566,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8148,7 +12079,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -8658,217 +12589,1629 @@
         <v>1.5624</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="4">
+        <v>3481873</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2828417</v>
+      </c>
+      <c r="D62" s="4">
+        <v>8206494</v>
+      </c>
+      <c r="E62" s="4">
+        <v>2312775</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2112308</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1953390</v>
+      </c>
+      <c r="H62" s="4">
+        <v>4784072</v>
+      </c>
+      <c r="I62" s="4">
+        <v>2093941</v>
+      </c>
+      <c r="J62" s="4">
+        <v>32398618</v>
+      </c>
+      <c r="K62" s="4">
+        <v>2009327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3.4818699999999998</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2.8284199999999999</v>
+      </c>
+      <c r="D63" s="2">
+        <v>8.2064900000000005</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2.31277</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2.1123099999999999</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.95339</v>
+      </c>
+      <c r="H63" s="2">
+        <v>4.7840699999999998</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2.0939399999999999</v>
+      </c>
+      <c r="J63" s="2">
+        <v>32.398600000000002</v>
+      </c>
+      <c r="K63" s="2">
+        <v>2.0093299999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="4">
+        <v>256279</v>
+      </c>
+      <c r="C65" s="4">
+        <v>256279</v>
+      </c>
+      <c r="D65" s="4">
+        <v>256279</v>
+      </c>
+      <c r="E65" s="4">
+        <v>256279</v>
+      </c>
+      <c r="F65" s="4">
+        <v>256279</v>
+      </c>
+      <c r="G65" s="4">
+        <v>256279</v>
+      </c>
+      <c r="H65" s="4">
+        <v>256279</v>
+      </c>
+      <c r="I65" s="4">
+        <v>256279</v>
+      </c>
+      <c r="J65" s="4">
+        <v>256279</v>
+      </c>
+      <c r="K65" s="4">
+        <v>256279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="4">
+        <v>748965</v>
+      </c>
+      <c r="C66" s="4">
+        <v>748865</v>
+      </c>
+      <c r="D66" s="4">
+        <v>969941</v>
+      </c>
+      <c r="E66" s="4">
+        <v>749065</v>
+      </c>
+      <c r="F66" s="4">
+        <v>748789</v>
+      </c>
+      <c r="G66" s="4">
+        <v>748954</v>
+      </c>
+      <c r="H66" s="4">
+        <v>748806</v>
+      </c>
+      <c r="I66" s="4">
+        <v>749028</v>
+      </c>
+      <c r="J66" s="4">
+        <v>995270</v>
+      </c>
+      <c r="K66" s="4">
+        <v>748966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="2">
+        <v>74.896500000000003</v>
+      </c>
+      <c r="C67" s="2">
+        <v>74.886499999999998</v>
+      </c>
+      <c r="D67" s="2">
+        <v>96.994100000000003</v>
+      </c>
+      <c r="E67" s="2">
+        <v>74.906499999999994</v>
+      </c>
+      <c r="F67" s="2">
+        <v>74.878900000000002</v>
+      </c>
+      <c r="G67" s="2">
+        <v>74.895399999999995</v>
+      </c>
+      <c r="H67" s="2">
+        <v>74.880600000000001</v>
+      </c>
+      <c r="I67" s="2">
+        <v>74.902799999999999</v>
+      </c>
+      <c r="J67" s="2">
+        <v>99.527000000000001</v>
+      </c>
+      <c r="K67" s="2">
+        <v>74.896600000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="4">
+        <v>5244</v>
+      </c>
+      <c r="C68" s="4">
+        <v>5144</v>
+      </c>
+      <c r="D68" s="4">
+        <v>226220</v>
+      </c>
+      <c r="E68" s="4">
+        <v>5344</v>
+      </c>
+      <c r="F68" s="4">
+        <v>5068</v>
+      </c>
+      <c r="G68" s="4">
+        <v>5233</v>
+      </c>
+      <c r="H68" s="4">
+        <v>5085</v>
+      </c>
+      <c r="I68" s="4">
+        <v>5307</v>
+      </c>
+      <c r="J68" s="4">
+        <v>251549</v>
+      </c>
+      <c r="K68" s="4">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2.0462099999999999</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2.00719</v>
+      </c>
+      <c r="D69" s="2">
+        <v>88.271000000000001</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.0852300000000001</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1.97753</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2.0419200000000002</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1.98417</v>
+      </c>
+      <c r="I69" s="2">
+        <v>2.0707900000000001</v>
+      </c>
+      <c r="J69" s="2">
+        <v>98.154399999999995</v>
+      </c>
+      <c r="K69" s="2">
+        <v>2.0466000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="4">
+        <v>16</v>
+      </c>
+      <c r="C70" s="4">
+        <v>16</v>
+      </c>
+      <c r="D70" s="4">
+        <v>100</v>
+      </c>
+      <c r="E70" s="4">
+        <v>15</v>
+      </c>
+      <c r="F70" s="4">
+        <v>16</v>
+      </c>
+      <c r="G70" s="4">
+        <v>15</v>
+      </c>
+      <c r="H70" s="4">
+        <v>16</v>
+      </c>
+      <c r="I70" s="4">
+        <v>15</v>
+      </c>
+      <c r="J70" s="4">
+        <v>475</v>
+      </c>
+      <c r="K70" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1983390</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1984620</v>
+      </c>
+      <c r="D75" s="4">
+        <v>7685616</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1365852</v>
+      </c>
+      <c r="F75" s="4">
+        <v>906370</v>
+      </c>
+      <c r="G75" s="4">
+        <v>984487</v>
+      </c>
+      <c r="H75" s="4">
+        <v>4281542</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1256759</v>
+      </c>
+      <c r="J75" s="4">
+        <v>31967690</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1378896</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1.98339</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1.9846200000000001</v>
+      </c>
+      <c r="D76" s="2">
+        <v>7.6856200000000001</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1.36585</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.90637000000000001</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.984487</v>
+      </c>
+      <c r="H76" s="2">
+        <v>4.2815399999999997</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1.2567600000000001</v>
+      </c>
+      <c r="J76" s="2">
+        <v>31.967700000000001</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1.3789</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="J80" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2605029</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2891017</v>
+      </c>
+      <c r="D81" s="3">
+        <v>8739418</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1736100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1805242</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1596716</v>
+      </c>
+      <c r="H81" s="4">
+        <v>4672355</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1655976</v>
+      </c>
+      <c r="J81" s="4">
+        <v>32705523</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1752191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2.6050300000000002</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2.8910200000000001</v>
+      </c>
+      <c r="D82" s="1">
+        <v>8.7394200000000009</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1.7361</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.80524</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1.5967199999999999</v>
+      </c>
+      <c r="H82" s="2">
+        <v>4.6723499999999998</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1.65598</v>
+      </c>
+      <c r="J82" s="2">
+        <v>32.705500000000001</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1.7521899999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="3">
+        <v>520241</v>
+      </c>
+      <c r="C84" s="3">
+        <v>520241</v>
+      </c>
+      <c r="D84" s="3">
+        <v>520241</v>
+      </c>
+      <c r="E84" s="3">
+        <v>520241</v>
+      </c>
+      <c r="F84" s="3">
+        <v>520241</v>
+      </c>
+      <c r="G84" s="3">
+        <v>520241</v>
+      </c>
+      <c r="H84" s="4">
+        <v>520241</v>
+      </c>
+      <c r="I84" s="4">
+        <v>520241</v>
+      </c>
+      <c r="J84" s="4">
+        <v>520241</v>
+      </c>
+      <c r="K84" s="4">
+        <v>520241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="3">
+        <v>555552</v>
+      </c>
+      <c r="C85" s="3">
+        <v>555859</v>
+      </c>
+      <c r="D85" s="3">
+        <v>969941</v>
+      </c>
+      <c r="E85" s="3">
+        <v>555345</v>
+      </c>
+      <c r="F85" s="3">
+        <v>555612</v>
+      </c>
+      <c r="G85" s="3">
+        <v>555886</v>
+      </c>
+      <c r="H85" s="4">
+        <v>555700</v>
+      </c>
+      <c r="I85" s="4">
+        <v>556177</v>
+      </c>
+      <c r="J85" s="4">
+        <v>995269</v>
+      </c>
+      <c r="K85" s="4">
+        <v>556082</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="2">
+        <v>55.555199999999999</v>
+      </c>
+      <c r="C86" s="2">
+        <v>55.585900000000002</v>
+      </c>
+      <c r="D86" s="2">
+        <v>96.994100000000003</v>
+      </c>
+      <c r="E86" s="2">
+        <v>55.534500000000001</v>
+      </c>
+      <c r="F86" s="2">
+        <v>55.561199999999999</v>
+      </c>
+      <c r="G86" s="2">
+        <v>55.5886</v>
+      </c>
+      <c r="H86" s="2">
+        <v>55.57</v>
+      </c>
+      <c r="I86" s="2">
+        <v>55.617699999999999</v>
+      </c>
+      <c r="J86" s="2">
+        <v>99.526899999999998</v>
+      </c>
+      <c r="K86" s="2">
+        <v>55.608199999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="3">
+        <v>75793</v>
+      </c>
+      <c r="C87" s="3">
+        <v>76100</v>
+      </c>
+      <c r="D87" s="3">
+        <v>490182</v>
+      </c>
+      <c r="E87" s="3">
+        <v>75586</v>
+      </c>
+      <c r="F87" s="3">
+        <v>75853</v>
+      </c>
+      <c r="G87" s="3">
+        <v>76127</v>
+      </c>
+      <c r="H87" s="4">
+        <v>75941</v>
+      </c>
+      <c r="I87" s="4">
+        <v>76418</v>
+      </c>
+      <c r="J87" s="4">
+        <v>515510</v>
+      </c>
+      <c r="K87" s="4">
+        <v>76323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="2">
+        <v>14.5688</v>
+      </c>
+      <c r="C88" s="2">
+        <v>14.627800000000001</v>
+      </c>
+      <c r="D88" s="2">
+        <v>94.222099999999998</v>
+      </c>
+      <c r="E88" s="2">
+        <v>14.529</v>
+      </c>
+      <c r="F88" s="2">
+        <v>14.580399999999999</v>
+      </c>
+      <c r="G88" s="2">
+        <v>14.632999999999999</v>
+      </c>
+      <c r="H88" s="2">
+        <v>14.597300000000001</v>
+      </c>
+      <c r="I88" s="2">
+        <v>14.689</v>
+      </c>
+      <c r="J88" s="2">
+        <v>99.090599999999995</v>
+      </c>
+      <c r="K88" s="2">
+        <v>14.6707</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="3">
+        <v>11</v>
+      </c>
+      <c r="C89" s="3">
+        <v>12</v>
+      </c>
+      <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>11</v>
+      </c>
+      <c r="F89" s="3">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3">
+        <v>12</v>
+      </c>
+      <c r="H89" s="4">
+        <v>11</v>
+      </c>
+      <c r="I89" s="4">
+        <v>12</v>
+      </c>
+      <c r="J89" s="4">
+        <v>449</v>
+      </c>
+      <c r="K89" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+      <c r="J90" s="4">
+        <v>0</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H92" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="J92" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="J93" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="K93" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1590744</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1647654</v>
+      </c>
+      <c r="D94" s="3">
+        <v>7772262</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1281314</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1148872</v>
+      </c>
+      <c r="G94" s="3">
+        <v>937562</v>
+      </c>
+      <c r="H94" s="4">
+        <v>4653206</v>
+      </c>
+      <c r="I94" s="4">
+        <v>936554</v>
+      </c>
+      <c r="J94" s="4">
+        <v>32483497</v>
+      </c>
+      <c r="K94" s="4">
+        <v>1436522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1.59074</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1.6476500000000001</v>
+      </c>
+      <c r="D95" s="1">
+        <v>7.7722600000000002</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1.2813099999999999</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1.1488700000000001</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.93756200000000001</v>
+      </c>
+      <c r="H95" s="2">
+        <v>4.6532099999999996</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0.936554</v>
+      </c>
+      <c r="J95" s="2">
+        <v>32.483499999999999</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1.43652</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H99" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I99" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="J99" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K99" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="4">
+        <v>3409306</v>
+      </c>
+      <c r="C100" s="4">
+        <v>3402263</v>
+      </c>
+      <c r="D100" s="4">
+        <v>8562581</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2598737</v>
+      </c>
+      <c r="F100" s="4">
+        <v>2701857</v>
+      </c>
+      <c r="G100" s="4">
+        <v>2706820</v>
+      </c>
+      <c r="H100" s="4">
+        <v>5706784</v>
+      </c>
+      <c r="I100" s="4">
+        <v>2626811</v>
+      </c>
+      <c r="J100" s="4">
+        <v>33774541</v>
+      </c>
+      <c r="K100" s="4">
+        <v>2228563</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="2">
+        <v>3.4093100000000001</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3.4022600000000001</v>
+      </c>
+      <c r="D101" s="2">
+        <v>8.5625800000000005</v>
+      </c>
+      <c r="E101" s="2">
+        <v>2.5987399999999998</v>
+      </c>
+      <c r="F101" s="2">
+        <v>2.7018599999999999</v>
+      </c>
+      <c r="G101" s="2">
+        <v>2.70682</v>
+      </c>
+      <c r="H101" s="2">
+        <v>5.7067800000000002</v>
+      </c>
+      <c r="I101" s="2">
+        <v>2.6268099999999999</v>
+      </c>
+      <c r="J101" s="2">
+        <v>33.774500000000003</v>
+      </c>
+      <c r="K101" s="2">
+        <v>2.2285599999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="4">
+        <v>256279</v>
+      </c>
+      <c r="C103" s="4">
+        <v>256279</v>
+      </c>
+      <c r="D103" s="4">
+        <v>256279</v>
+      </c>
+      <c r="E103" s="4">
+        <v>256279</v>
+      </c>
+      <c r="F103" s="4">
+        <v>256279</v>
+      </c>
+      <c r="G103" s="4">
+        <v>256279</v>
+      </c>
+      <c r="H103" s="4">
+        <v>256279</v>
+      </c>
+      <c r="I103" s="4">
+        <v>256279</v>
+      </c>
+      <c r="J103" s="4">
+        <v>256279</v>
+      </c>
+      <c r="K103" s="4">
+        <v>256279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="4">
+        <v>748965</v>
+      </c>
+      <c r="C104" s="4">
+        <v>748865</v>
+      </c>
+      <c r="D104" s="4">
+        <v>969941</v>
+      </c>
+      <c r="E104" s="4">
+        <v>749065</v>
+      </c>
+      <c r="F104" s="4">
+        <v>748789</v>
+      </c>
+      <c r="G104" s="4">
+        <v>748954</v>
+      </c>
+      <c r="H104" s="4">
+        <v>748806</v>
+      </c>
+      <c r="I104" s="4">
+        <v>749028</v>
+      </c>
+      <c r="J104" s="4">
+        <v>995270</v>
+      </c>
+      <c r="K104" s="4">
+        <v>748966</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="2">
+        <v>74.896500000000003</v>
+      </c>
+      <c r="C105" s="2">
+        <v>74.886499999999998</v>
+      </c>
+      <c r="D105" s="2">
+        <v>96.994100000000003</v>
+      </c>
+      <c r="E105" s="2">
+        <v>74.906499999999994</v>
+      </c>
+      <c r="F105" s="2">
+        <v>74.878900000000002</v>
+      </c>
+      <c r="G105" s="2">
+        <v>74.895399999999995</v>
+      </c>
+      <c r="H105" s="2">
+        <v>74.880600000000001</v>
+      </c>
+      <c r="I105" s="2">
+        <v>74.902799999999999</v>
+      </c>
+      <c r="J105" s="2">
+        <v>99.527000000000001</v>
+      </c>
+      <c r="K105" s="2">
+        <v>74.896600000000007</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="4">
+        <v>5244</v>
+      </c>
+      <c r="C106" s="4">
+        <v>5144</v>
+      </c>
+      <c r="D106" s="4">
+        <v>226220</v>
+      </c>
+      <c r="E106" s="4">
+        <v>5344</v>
+      </c>
+      <c r="F106" s="4">
+        <v>5068</v>
+      </c>
+      <c r="G106" s="4">
+        <v>5233</v>
+      </c>
+      <c r="H106" s="4">
+        <v>5085</v>
+      </c>
+      <c r="I106" s="4">
+        <v>5307</v>
+      </c>
+      <c r="J106" s="4">
+        <v>251549</v>
+      </c>
+      <c r="K106" s="4">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2.0462099999999999</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2.00719</v>
+      </c>
+      <c r="D107" s="2">
+        <v>88.271000000000001</v>
+      </c>
+      <c r="E107" s="2">
+        <v>2.0852300000000001</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1.97753</v>
+      </c>
+      <c r="G107" s="2">
+        <v>2.0419200000000002</v>
+      </c>
+      <c r="H107" s="2">
+        <v>1.98417</v>
+      </c>
+      <c r="I107" s="2">
+        <v>2.0707900000000001</v>
+      </c>
+      <c r="J107" s="2">
+        <v>98.154399999999995</v>
+      </c>
+      <c r="K107" s="2">
+        <v>2.0466000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="4">
+        <v>16</v>
+      </c>
+      <c r="C108" s="4">
+        <v>16</v>
+      </c>
+      <c r="D108" s="4">
+        <v>100</v>
+      </c>
+      <c r="E108" s="4">
+        <v>15</v>
+      </c>
+      <c r="F108" s="4">
+        <v>16</v>
+      </c>
+      <c r="G108" s="4">
+        <v>15</v>
+      </c>
+      <c r="H108" s="4">
+        <v>16</v>
+      </c>
+      <c r="I108" s="4">
+        <v>15</v>
+      </c>
+      <c r="J108" s="4">
+        <v>475</v>
+      </c>
+      <c r="K108" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="4">
+        <v>0</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H111" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I111" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="J111" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="K111" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="E112" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="K112" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" s="4">
+        <v>2079396</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1960307</v>
+      </c>
+      <c r="D113" s="4">
+        <v>7790250</v>
+      </c>
+      <c r="E113" s="4">
+        <v>1276815</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1306893</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1232820</v>
+      </c>
+      <c r="H113" s="4">
+        <v>4303925</v>
+      </c>
+      <c r="I113" s="4">
+        <v>1230842</v>
+      </c>
+      <c r="J113" s="4">
+        <v>32520509</v>
+      </c>
+      <c r="K113" s="4">
+        <v>1426957</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2.0794000000000001</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1.96031</v>
+      </c>
+      <c r="D114" s="2">
+        <v>7.7902500000000003</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1.2768200000000001</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1.3068900000000001</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1.23282</v>
+      </c>
+      <c r="H114" s="2">
+        <v>4.3039199999999997</v>
+      </c>
+      <c r="I114" s="2">
+        <v>1.2308399999999999</v>
+      </c>
+      <c r="J114" s="2">
+        <v>32.520499999999998</v>
+      </c>
+      <c r="K114" s="2">
+        <v>1.42696</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -9005,6 +14348,66 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASD2/Labo4/statistiques.xlsx
+++ b/ASD2/Labo4/statistiques.xlsx
@@ -10955,7 +10955,7 @@
   <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
